--- a/projects/2/temp/sample_example.xlsx
+++ b/projects/2/temp/sample_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\projects\2\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7159A8C-6B16-4351-9F2C-EEFC32A7EE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96593EDF-EE58-4623-B8F4-C576E1F375B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31830" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34335" yWindow="525" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="4">
   <si>
     <t>Almaty</t>
   </si>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A986" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G991" sqref="G991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8952,9 +8952,6 @@
       <c r="A995" t="s">
         <v>0</v>
       </c>
-      <c r="B995" t="s">
-        <v>1</v>
-      </c>
       <c r="C995" t="s">
         <v>2</v>
       </c>
@@ -8966,9 +8963,6 @@
       <c r="A996" t="s">
         <v>0</v>
       </c>
-      <c r="B996" t="s">
-        <v>1</v>
-      </c>
       <c r="C996" t="s">
         <v>2</v>
       </c>
@@ -8980,9 +8974,6 @@
       <c r="A997" t="s">
         <v>0</v>
       </c>
-      <c r="B997" t="s">
-        <v>1</v>
-      </c>
       <c r="C997" t="s">
         <v>2</v>
       </c>
@@ -8994,9 +8985,6 @@
       <c r="A998" t="s">
         <v>0</v>
       </c>
-      <c r="B998" t="s">
-        <v>1</v>
-      </c>
       <c r="C998" t="s">
         <v>2</v>
       </c>
@@ -9008,9 +8996,6 @@
       <c r="A999" t="s">
         <v>0</v>
       </c>
-      <c r="B999" t="s">
-        <v>1</v>
-      </c>
       <c r="C999" t="s">
         <v>2</v>
       </c>
@@ -9060,5 +9045,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/projects/2/temp/sample_example.xlsx
+++ b/projects/2/temp/sample_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\projects\2\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96593EDF-EE58-4623-B8F4-C576E1F375B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260FF73-E2BC-4DE8-B262-B748023F6760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34335" yWindow="525" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45390" yWindow="4635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A986" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G991" sqref="G991"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/2/temp/sample_example.xlsx
+++ b/projects/2/temp/sample_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\projects\2\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260FF73-E2BC-4DE8-B262-B748023F6760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BEF210-A80A-4480-9827-5A936322ABC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45390" yWindow="4635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30405" yWindow="210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A1003" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E1008" sqref="E1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>

--- a/projects/2/temp/sample_example.xlsx
+++ b/projects/2/temp/sample_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\PyE-221-1\projects\2\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BEF210-A80A-4480-9827-5A936322ABC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5DEBC-F0D6-410B-9AAF-304F8059DA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="4815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="5">
   <si>
     <t>Almaty</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Ekibastuz</t>
+  </si>
+  <si>
+    <t>Tar</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1007"/>
+  <dimension ref="A1:F1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1003" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E1008" sqref="E1008"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +385,7 @@
     <col min="1" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +398,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -410,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -424,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -438,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -452,7 +461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -466,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -480,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -494,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -508,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -522,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -536,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -550,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -564,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -578,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -592,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -8774,33 +8783,21 @@
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B981" t="s">
-        <v>1</v>
-      </c>
       <c r="D981" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B982" t="s">
-        <v>1</v>
-      </c>
       <c r="D982" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B983" t="s">
-        <v>1</v>
-      </c>
       <c r="D983" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B984" t="s">
-        <v>1</v>
-      </c>
       <c r="D984" t="s">
         <v>3</v>
       </c>
@@ -8809,9 +8806,6 @@
       <c r="A985" t="s">
         <v>0</v>
       </c>
-      <c r="B985" t="s">
-        <v>1</v>
-      </c>
       <c r="D985" t="s">
         <v>3</v>
       </c>
@@ -8914,7 +8908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>0</v>
       </c>
@@ -8931,7 +8925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>0</v>
       </c>
@@ -8948,7 +8942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>0</v>
       </c>
@@ -8959,7 +8953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>0</v>
       </c>
@@ -8970,7 +8964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>0</v>
       </c>
@@ -8981,7 +8975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>0</v>
       </c>
@@ -8992,7 +8986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>0</v>
       </c>
@@ -9003,44 +8997,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1000" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1001" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1002" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1003" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1004" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1005" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1006" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1007" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008">
+        <v>1</v>
+      </c>
+      <c r="B1008">
+        <v>2</v>
+      </c>
+      <c r="C1008">
+        <v>3</v>
+      </c>
+      <c r="D1008">
+        <v>4</v>
+      </c>
+      <c r="E1008">
+        <v>5</v>
+      </c>
+      <c r="F1008">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
